--- a/biology/Botanique/Tony_Rinaudo/Tony_Rinaudo.xlsx
+++ b/biology/Botanique/Tony_Rinaudo/Tony_Rinaudo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tony Rinaudo est un agronome australien, promoteur de la régénération naturelle assistée.
 Installé au Niger dans les années 1980 avec son épouse Lise Fearon, il cherche en vain pendant plusieurs années à lutter contre la déforestation au Sahel, qui entraîne un appauvrissement des sols, suivi d'une baisse des rendements et crée des famines. Il cherche en vain à planter ou faire planter par les paysans locaux des arbres, puis il se rend compte que de nombreux endroits désertiques ont d'anciennes forêts où les arbres sont encore vivants, sous forme de racines ou de souches ressemblant à de petits buissons. Il suffit de laisser repousser ses arbres en les protégeant contre le dessouchage et le surpâturage et en sélectionnant certaines branches pour voir repousser très rapidement un arbre, ce qui rend le sol plus fertile et propice à l'agroforesterie. Cette technique permet de reboiser au fil des années des millions d'hectares pour un coût très faible.
